--- a/Team-Data/2008-09/12-30-2008-09.xlsx
+++ b/Team-Data/2008-09/12-30-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>3.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>5</v>
@@ -853,13 +853,13 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -915,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.871</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
         <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
@@ -975,37 +975,37 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1187,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.389</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1342,43 +1342,43 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>16</v>
@@ -1390,28 +1390,28 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>18</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.897</v>
+        <v>0.867</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>79.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1548,70 +1548,70 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1748,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1781,10 +1781,10 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1909,16 +1909,16 @@
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1942,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
@@ -1966,13 +1966,13 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2094,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2124,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>22</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2318,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>18</v>
@@ -2333,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2455,10 +2455,10 @@
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>13</v>
@@ -2467,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>25</v>
@@ -2494,13 +2494,13 @@
         <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2676,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2691,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2703,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2813,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2861,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2917,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3025,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -3040,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3052,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -3064,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3359,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3389,19 +3389,19 @@
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>25</v>
@@ -3413,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3434,7 +3434,7 @@
         <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3526,34 +3526,34 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3565,7 +3565,7 @@
         <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
@@ -3580,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3610,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3747,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3762,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>10</v>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3905,7 +3905,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3917,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
@@ -3932,10 +3932,10 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4284,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4493,7 +4493,7 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>15</v>
@@ -4633,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4678,7 +4678,7 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4815,7 +4815,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4851,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4863,10 +4863,10 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>26</v>
@@ -4875,13 +4875,13 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4997,13 +4997,13 @@
         <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -5063,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
         <v>8</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>14</v>
@@ -5239,19 +5239,19 @@
         <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5361,7 +5361,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5397,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5412,7 +5412,7 @@
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>24</v>
@@ -5430,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
@@ -5543,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5564,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5615,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>10</v>
@@ -5725,7 +5725,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
@@ -5749,19 +5749,19 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5922,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5964,7 +5964,7 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -5973,10 +5973,10 @@
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>-6</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6140,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
@@ -6155,7 +6155,7 @@
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>29</v>

--- a/Team-Data/2008-09/12-30-2008-09.xlsx
+++ b/Team-Data/2008-09/12-30-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J2" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M2" t="n">
         <v>21.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>0.751</v>
@@ -711,40 +778,40 @@
         <v>11.2</v>
       </c>
       <c r="S2" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W2" t="n">
         <v>6.7</v>
       </c>
       <c r="X2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>5</v>
@@ -753,19 +820,19 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -774,31 +841,31 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS2" t="n">
         <v>18</v>
       </c>
-      <c r="AP2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>16</v>
-      </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>25</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -851,25 +918,25 @@
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.844</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
@@ -881,49 +948,49 @@
         <v>0.369</v>
       </c>
       <c r="O3" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
         <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
@@ -932,16 +999,16 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -965,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.344</v>
+        <v>0.355</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J4" t="n">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.362</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>19.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1120,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1135,34 +1202,34 @@
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>29</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>22</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.389</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1275,40 +1342,40 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
@@ -1317,55 +1384,55 @@
         <v>16</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT5" t="n">
         <v>13</v>
       </c>
-      <c r="AS5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>12</v>
-      </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -1409,28 +1476,28 @@
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.772</v>
@@ -1439,40 +1506,40 @@
         <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,67 +1548,67 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU6" t="n">
         <v>16</v>
       </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>14</v>
-      </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.613</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
@@ -1597,79 +1664,79 @@
         <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O7" t="n">
         <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.802</v>
+        <v>0.806</v>
       </c>
       <c r="R7" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="T7" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1678,25 +1745,25 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1714,19 +1781,19 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -1839,19 +1906,19 @@
         <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
@@ -1896,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2018,28 +2085,28 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2057,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>22</v>
@@ -2066,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
@@ -2075,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2093,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>18</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2385,22 +2452,22 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>25</v>
@@ -2418,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2448,16 +2515,16 @@
         <v>27</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
         <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H12" t="n">
         <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.452</v>
@@ -2516,13 +2583,13 @@
         <v>19.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P12" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q12" t="n">
         <v>0.798</v>
@@ -2531,16 +2598,16 @@
         <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2549,22 +2616,22 @@
         <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2597,16 +2664,16 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR12" t="n">
         <v>6</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2618,22 +2685,22 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.267</v>
+        <v>0.276</v>
       </c>
       <c r="H13" t="n">
         <v>49</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
         <v>84.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L13" t="n">
         <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.746</v>
+        <v>0.739</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
         <v>30</v>
       </c>
       <c r="T13" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U13" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2761,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2782,28 +2849,28 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -2850,91 +2917,91 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2952,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2985,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -2997,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J15" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
         <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
         <v>28.6</v>
       </c>
       <c r="T15" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U15" t="n">
         <v>17</v>
       </c>
       <c r="V15" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3125,13 +3192,13 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,19 +3207,19 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3167,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="H16" t="n">
         <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
         <v>0.448</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R16" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
         <v>40.5</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
@@ -3274,25 +3341,25 @@
         <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
         <v>20.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.5</v>
+        <v>96.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3307,16 +3374,16 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL16" t="n">
         <v>14</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
@@ -3325,16 +3392,16 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>25</v>
@@ -3343,28 +3410,28 @@
         <v>22</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX16" t="n">
         <v>5</v>
       </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>6</v>
-      </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3399,25 +3466,25 @@
         <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.484</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3432,64 +3499,64 @@
         <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
         <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -3498,13 +3565,13 @@
         <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN17" t="n">
         <v>25</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3513,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
         <v>15.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P18" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3635,34 +3702,34 @@
         <v>14.2</v>
       </c>
       <c r="W18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.3</v>
       </c>
-      <c r="X18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6.4</v>
-      </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC18" t="n">
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3680,37 +3747,37 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3856,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
@@ -3898,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3913,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -3942,88 +4009,88 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J20" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T20" t="n">
         <v>39.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
         <v>4.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4053,31 +4120,31 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4086,16 +4153,16 @@
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -4124,49 +4191,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.379</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.358</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>31.7</v>
@@ -4175,43 +4242,43 @@
         <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.3</v>
+        <v>104.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4253,25 +4320,25 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -4420,13 +4487,13 @@
         <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>15</v>
@@ -4435,10 +4502,10 @@
         <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4596,25 +4663,25 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4623,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4760,10 +4827,10 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -4781,13 +4848,13 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,19 +4863,19 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
@@ -4817,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -4852,91 +4919,91 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J25" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M25" t="n">
         <v>17.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.394</v>
+        <v>0.397</v>
       </c>
       <c r="O25" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P25" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="Q25" t="n">
         <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4966,19 +5033,19 @@
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -4990,13 +5057,13 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5037,43 +5104,43 @@
         <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
@@ -5085,7 +5152,7 @@
         <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5094,43 +5161,43 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,28 +5227,28 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
         <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0.226</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P27" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.784</v>
       </c>
       <c r="R27" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>15.9</v>
@@ -5276,79 +5343,79 @@
         <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y27" t="n">
         <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI27" t="n">
         <v>17</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM27" t="n">
         <v>18</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU27" t="n">
         <v>23</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
@@ -5360,13 +5427,13 @@
         <v>14</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.645</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
@@ -5416,46 +5483,46 @@
         <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.403</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
         <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
         <v>12.1</v>
       </c>
       <c r="W28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X28" t="n">
         <v>4.1</v>
@@ -5473,28 +5540,28 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF28" t="n">
         <v>6</v>
       </c>
-      <c r="AF28" t="n">
-        <v>7</v>
-      </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>9</v>
@@ -5542,13 +5609,13 @@
         <v>8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
@@ -5667,34 +5734,34 @@
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
       </c>
       <c r="AK29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL29" t="n">
         <v>16</v>
       </c>
-      <c r="AL29" t="n">
-        <v>17</v>
-      </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,16 +5770,16 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
@@ -5727,10 +5794,10 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5855,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5882,7 +5949,7 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
@@ -5897,16 +5964,16 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.207</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
@@ -5962,73 +6029,73 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="O31" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T31" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U31" t="n">
         <v>20.8</v>
       </c>
       <c r="V31" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
         <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6046,7 +6113,7 @@
         <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
@@ -6055,31 +6122,31 @@
         <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,13 +6155,13 @@
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>29</v>
       </c>
       <c r="BB31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-30-2008-09</t>
+          <t>2008-12-30</t>
         </is>
       </c>
     </row>
